--- a/Data/MapData/Map_2/map.xlsx
+++ b/Data/MapData/Map_2/map.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\まほ まや まい\Desktop\clone\JouhouKyouyuuDaiji_Seisaku\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2309435\Desktop\clone\JouhouKyouyuuDaiji_Seisaku\Data\MapData\Map_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05899CC6-F0B3-452C-B4C8-CD98A3557E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{90788001-DD0E-4A61-977C-2261994D5B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3150" yWindow="4230" windowWidth="21600" windowHeight="11970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="map" sheetId="1" r:id="rId1"/>
@@ -656,7 +656,7 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -681,56 +681,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1047,76 +998,76 @@
   <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1125,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1173,12 +1124,12 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1187,16 +1138,16 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1217,16 +1168,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -1235,12 +1186,12 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1249,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1258,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1267,10 +1218,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -1279,10 +1230,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -1297,12 +1248,12 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1311,16 +1262,16 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1329,10 +1280,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1341,13 +1292,13 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -1359,12 +1310,12 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1373,16 +1324,16 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1391,42 +1342,42 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1435,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1444,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1459,16 +1410,16 @@
         <v>4</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -1477,27 +1428,27 @@
         <v>0</v>
       </c>
       <c r="R7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1506,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1515,10 +1466,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1527,10 +1478,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -1539,18 +1490,18 @@
         <v>0</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T8">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1559,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1568,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1577,10 +1528,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1589,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1607,12 +1558,12 @@
         <v>0</v>
       </c>
       <c r="T9">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1630,25 +1581,25 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1669,12 +1620,12 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1692,7 +1643,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1731,87 +1682,88 @@
         <v>0</v>
       </c>
       <c r="T11">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T12">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="A1:T12">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data/MapData/Map_2/map.xlsx
+++ b/Data/MapData/Map_2/map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2309435\Desktop\clone\JouhouKyouyuuDaiji_Seisaku\Data\MapData\Map_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90788001-DD0E-4A61-977C-2261994D5B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{605C756B-968D-4C38-AF99-A1660DE816A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1095" windowWidth="12240" windowHeight="14505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="map" sheetId="1" r:id="rId1"/>
@@ -656,37 +656,61 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC000"/>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
+          <bgColor rgb="FFFFEFEF"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="-0.499984740745262"/>
+          <bgColor rgb="FFD2C1B1"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
+          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFEFEF"/>
+      <color rgb="FFD2C1B1"/>
+      <color rgb="FFC7C1B1"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -997,77 +1021,77 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T1">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1124,508 +1148,508 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1682,88 +1706,91 @@
         <v>0</v>
       </c>
       <c r="T11">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="A1:T12">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
       <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data/MapData/Map_2/map.xlsx
+++ b/Data/MapData/Map_2/map.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2309435\Desktop\clone\JouhouKyouyuuDaiji_Seisaku\Data\MapData\Map_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\まほ まや まい\Desktop\clone\JouhouKyouyuuDaiji_Seisaku\Data\MapData\Map_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{605C756B-968D-4C38-AF99-A1660DE816A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A824F6BB-398D-4734-9B83-BF39107AF4E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1095" windowWidth="12240" windowHeight="14505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8835" yWindow="4230" windowWidth="18480" windowHeight="11970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="map" sheetId="1" r:id="rId1"/>
@@ -656,7 +656,7 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="18">
     <dxf>
       <fill>
         <patternFill>
@@ -702,10 +702,112 @@
         <horizontal/>
       </border>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEFEF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD2C1B1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00FFFF"/>
       <color rgb="FFFFEFEF"/>
       <color rgb="FFD2C1B1"/>
       <color rgb="FFC7C1B1"/>
@@ -1021,8 +1123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1221,16 +1323,16 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -1283,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -1292,7 +1394,7 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -1319,7 +1421,7 @@
         <v>3</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P5">
         <v>3</v>
@@ -1354,7 +1456,7 @@
         <v>3</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -1407,16 +1509,16 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1469,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1531,16 +1633,16 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1773,20 +1875,61 @@
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
-  <conditionalFormatting sqref="A1:T12">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+  <conditionalFormatting sqref="A1:T3 A10:T12 M4:T9 A4:H9">
+    <cfRule type="cellIs" dxfId="17" priority="10" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="11" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="12" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="16" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="18" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="19" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4:L9">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="9" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Data/MapData/Map_2/map.xlsx
+++ b/Data/MapData/Map_2/map.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\まほ まや まい\Desktop\clone\JouhouKyouyuuDaiji_Seisaku\Data\MapData\Map_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2309435\Desktop\clone\JouhouKyouyuuDaiji_Seisaku\Data\MapData\Map_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A824F6BB-398D-4734-9B83-BF39107AF4E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB62B0C-82AE-4DFE-A862-1DCC4864BB8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8835" yWindow="4230" windowWidth="18480" windowHeight="11970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2385" yWindow="1095" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="map" sheetId="1" r:id="rId1"/>
@@ -656,7 +656,7 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="36">
     <dxf>
       <fill>
         <patternFill>
@@ -803,10 +803,157 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEFEF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD2C1B1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEFEF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD2C1B1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF6600"/>
       <color rgb="FF00FFFF"/>
       <color rgb="FFFFEFEF"/>
       <color rgb="FFD2C1B1"/>
@@ -1123,8 +1270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1876,60 +2023,60 @@
   </sheetData>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="A1:T3 A10:T12 M4:T9 A4:H9">
-    <cfRule type="cellIs" dxfId="17" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="10" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="11" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="12" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="13" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="15" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="16" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="18" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="19" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:L9">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="1" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="2" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="3" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="6" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="9" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Data/MapData/Map_2/map.xlsx
+++ b/Data/MapData/Map_2/map.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2309435\Desktop\clone\JouhouKyouyuuDaiji_Seisaku\Data\MapData\Map_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sawas\OneDrive\デスクトップ\学校の課題\JouhouKyouyuuDaiji_Seisaku\Data\MapData\Map_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB62B0C-82AE-4DFE-A862-1DCC4864BB8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E441B6-7D05-4534-BCFE-F61865062F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2385" yWindow="1095" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1056" windowWidth="14880" windowHeight="11184" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="map" sheetId="1" r:id="rId1"/>
@@ -656,153 +656,7 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="36">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEFEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD2C1B1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEFEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD2C1B1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill>
@@ -883,72 +737,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEFEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD2C1B1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -972,9 +760,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1012,7 +800,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1118,7 +906,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1260,7 +1048,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1270,13 +1058,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1">
         <v>0</v>
       </c>
@@ -1338,7 +1126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1400,7 +1188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1411,7 +1199,7 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1429,13 +1217,13 @@
         <v>1</v>
       </c>
       <c r="J3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M3">
         <v>1</v>
@@ -1462,7 +1250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1470,495 +1258,495 @@
         <v>0</v>
       </c>
       <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>4</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>3</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>6</v>
+      </c>
+      <c r="J5">
+        <v>6</v>
+      </c>
+      <c r="K5">
+        <v>6</v>
+      </c>
+      <c r="L5">
+        <v>6</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5">
+        <v>4</v>
+      </c>
+      <c r="O5">
+        <v>4</v>
+      </c>
+      <c r="P5">
+        <v>3</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>3</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>6</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <v>3</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>3</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>3</v>
+      </c>
+      <c r="R6">
+        <v>4</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>6</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>4</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>3</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>3</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>4</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
         <v>7</v>
       </c>
-      <c r="D4">
+      <c r="K8">
         <v>7</v>
       </c>
-      <c r="E4">
+      <c r="L8">
+        <v>4</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>4</v>
+      </c>
+      <c r="P8">
+        <v>4</v>
+      </c>
+      <c r="Q8">
+        <v>4</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>4</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>3</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
         <v>7</v>
       </c>
-      <c r="F4">
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>5</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>4</v>
+      </c>
+      <c r="M10">
+        <v>3</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>3</v>
+      </c>
+      <c r="P10">
         <v>7</v>
       </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>3</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>3</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>3</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>3</v>
-      </c>
-      <c r="R4">
-        <v>1</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
+      <c r="Q10">
+        <v>3</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>7</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>7</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>3</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>3</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>3</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <v>3</v>
-      </c>
-      <c r="O5">
-        <v>5</v>
-      </c>
-      <c r="P5">
-        <v>3</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-      <c r="R5">
-        <v>3</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
+    <row r="11" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>7</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>3</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>3</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>3</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>3</v>
-      </c>
-      <c r="R6">
-        <v>1</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>7</v>
-      </c>
-      <c r="D7">
-        <v>7</v>
-      </c>
-      <c r="E7">
-        <v>7</v>
-      </c>
-      <c r="F7">
-        <v>7</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>3</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>3</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>3</v>
-      </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-      <c r="N7">
-        <v>3</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <v>3</v>
-      </c>
-      <c r="Q7">
-        <v>1</v>
-      </c>
-      <c r="R7">
-        <v>3</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>3</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>3</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>3</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>3</v>
-      </c>
-      <c r="P8">
-        <v>1</v>
-      </c>
-      <c r="Q8">
-        <v>3</v>
-      </c>
-      <c r="R8">
-        <v>1</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>7</v>
-      </c>
-      <c r="D9">
-        <v>7</v>
-      </c>
-      <c r="E9">
-        <v>7</v>
-      </c>
-      <c r="F9">
-        <v>7</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>3</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>3</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>3</v>
-      </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-      <c r="N9">
-        <v>3</v>
-      </c>
-      <c r="O9">
-        <v>1</v>
-      </c>
-      <c r="P9">
-        <v>3</v>
-      </c>
-      <c r="Q9">
-        <v>1</v>
-      </c>
-      <c r="R9">
-        <v>3</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>3</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>3</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>3</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>3</v>
-      </c>
-      <c r="P10">
-        <v>1</v>
-      </c>
-      <c r="Q10">
-        <v>3</v>
-      </c>
-      <c r="R10">
-        <v>1</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11">
-        <v>0</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>0</v>
       </c>
@@ -2022,61 +1810,39 @@
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
-  <conditionalFormatting sqref="A1:T3 A10:T12 M4:T9 A4:H9">
-    <cfRule type="cellIs" dxfId="35" priority="10" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="11" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="12" operator="equal">
-      <formula>7</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="13" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="14" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="15" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="16" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="18" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="19" operator="equal">
+  <conditionalFormatting sqref="A1:T3 A4:H9 M4:T9 A10:T12">
+    <cfRule type="cellIs" dxfId="9" priority="19" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4:L9">
-    <cfRule type="cellIs" dxfId="26" priority="1" operator="equal">
+  <conditionalFormatting sqref="A1:T12">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="9" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4:L9">
+    <cfRule type="cellIs" dxfId="0" priority="9" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
